--- a/test case fw1 - ahmed  osman.xlsx
+++ b/test case fw1 - ahmed  osman.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{010A5630-0D1F-46B1-954A-014F3F6DEE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CFF460-2ECE-44BF-B548-55CD09572CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1810" yWindow="2780" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -348,6 +347,9 @@
   </si>
   <si>
     <t>TC-021</t>
+  </si>
+  <si>
+    <t>TC-022</t>
   </si>
 </sst>
 </file>
@@ -799,8 +801,8 @@
   </sheetPr>
   <dimension ref="A1:AB1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1843,14 +1845,31 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="1:28" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+    <row r="24" spans="1:28" ht="112" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
